--- a/ifmp_investigacion/data_cleaner_inputs/ifmp_researchers.xlsx
+++ b/ifmp_investigacion/data_cleaner_inputs/ifmp_researchers.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ignacio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ignacio\Documents\git_repos\small_scale_projects\ifmp_investigacion\data_cleaner_inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92F18C0A-7EED-40E8-9B9B-F610744F55DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9305FE95-1A35-4CBD-9144-44FB7D697715}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20280" yWindow="-2235" windowWidth="19440" windowHeight="15000" xr2:uid="{FC6E43EF-5D47-4051-8D95-25C1B9AFD460}"/>
   </bookViews>
@@ -706,12 +706,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -726,8 +732,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1044,8 +1051,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20A203BF-1B68-4893-A851-A345017E630E}">
   <dimension ref="A1:O66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H37" workbookViewId="0">
-      <selection activeCell="M48" sqref="M48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B44" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4273,7 +4283,7 @@
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A59" t="str">
+      <c r="A59" s="1" t="str">
         <f t="shared" si="0"/>
         <v>psi_ifmp_lapsi_sp_1</v>
       </c>
@@ -4328,7 +4338,7 @@
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A60" t="str">
+      <c r="A60" s="1" t="str">
         <f t="shared" si="0"/>
         <v>psi_ifmp_lapsi_mi_1</v>
       </c>
@@ -4383,7 +4393,7 @@
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A61" t="str">
+      <c r="A61" s="1" t="str">
         <f t="shared" si="0"/>
         <v>psi_ifmp_lapsi_dl_1</v>
       </c>
@@ -4438,7 +4448,7 @@
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A62" t="str">
+      <c r="A62" s="1" t="str">
         <f t="shared" si="0"/>
         <v>psi_ifmp_cog_aiaa_2</v>
       </c>
@@ -4493,7 +4503,7 @@
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A63" t="str">
+      <c r="A63" s="1" t="str">
         <f t="shared" si="0"/>
         <v>psi_ifmp_cog_smd_1</v>
       </c>
@@ -4548,7 +4558,7 @@
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A64" t="str">
+      <c r="A64" s="1" t="str">
         <f t="shared" si="0"/>
         <v>psi_ifmp_lapsi_nl_1</v>
       </c>
@@ -4603,7 +4613,7 @@
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A65" t="str">
+      <c r="A65" s="1" t="str">
         <f t="shared" si="0"/>
         <v>psi_ifmp_lapsi_cnff_1</v>
       </c>
